--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H2">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I2">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J2">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>0.2593953795564444</v>
+        <v>1.123718246933333</v>
       </c>
       <c r="R2">
-        <v>2.334558416008</v>
+        <v>10.1134642224</v>
       </c>
       <c r="S2">
-        <v>0.001374431530605634</v>
+        <v>0.004457570127125213</v>
       </c>
       <c r="T2">
-        <v>0.001444096512820434</v>
+        <v>0.004475877198828223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.8168139999999999</v>
+      </c>
+      <c r="H3">
+        <v>2.450442</v>
+      </c>
+      <c r="I3">
+        <v>0.009738363985633989</v>
+      </c>
+      <c r="J3">
+        <v>0.00977835907772915</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.086278666666667</v>
-      </c>
-      <c r="H3">
-        <v>3.258836</v>
-      </c>
-      <c r="I3">
-        <v>0.01142600940532366</v>
-      </c>
-      <c r="J3">
-        <v>0.01200515265421091</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>0.6956792909142221</v>
+        <v>1.331246452184667</v>
       </c>
       <c r="R3">
-        <v>6.261113618227999</v>
+        <v>11.981218069662</v>
       </c>
       <c r="S3">
-        <v>0.003686124071511517</v>
+        <v>0.005280793858508776</v>
       </c>
       <c r="T3">
-        <v>0.003872960419605367</v>
+        <v>0.005302481878900926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.086278666666667</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H4">
-        <v>3.258836</v>
+        <v>235.023953</v>
       </c>
       <c r="I4">
-        <v>0.01142600940532366</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J4">
-        <v>0.01200515265421091</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>1.201347079548</v>
+        <v>107.7767620912889</v>
       </c>
       <c r="R4">
-        <v>10.812123715932</v>
+        <v>969.9908588216001</v>
       </c>
       <c r="S4">
-        <v>0.006365453803206512</v>
+        <v>0.4275292996331602</v>
       </c>
       <c r="T4">
-        <v>0.006688095721785105</v>
+        <v>0.4292851462761315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>235.023953</v>
       </c>
       <c r="I5">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J5">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>18.70733215580378</v>
+        <v>127.6809667846315</v>
       </c>
       <c r="R5">
-        <v>168.365989402234</v>
+        <v>1149.128701061683</v>
       </c>
       <c r="S5">
-        <v>0.09912261048140396</v>
+        <v>0.5064853800272993</v>
       </c>
       <c r="T5">
-        <v>0.1041467784683162</v>
+        <v>0.5085654963023664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>78.34131766666667</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H6">
-        <v>235.023953</v>
+        <v>6.997757</v>
       </c>
       <c r="I6">
-        <v>0.8240322303590443</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J6">
-        <v>0.8657994551309391</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>50.17168613912988</v>
+        <v>3.209015854488889</v>
       </c>
       <c r="R6">
-        <v>451.545175252169</v>
+        <v>28.8811426904</v>
       </c>
       <c r="S6">
-        <v>0.2658395361212075</v>
+        <v>0.01272953718556952</v>
       </c>
       <c r="T6">
-        <v>0.2793139843883497</v>
+        <v>0.01278181691272048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.34131766666667</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H7">
-        <v>235.023953</v>
+        <v>6.997757</v>
       </c>
       <c r="I7">
-        <v>0.8240322303590443</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J7">
-        <v>0.8657994551309391</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>86.639935105779</v>
+        <v>3.801656672347445</v>
       </c>
       <c r="R7">
-        <v>779.7594159520111</v>
+        <v>34.21491005112701</v>
       </c>
       <c r="S7">
-        <v>0.4590700837564328</v>
+        <v>0.01508042720004668</v>
       </c>
       <c r="T7">
-        <v>0.4823386922742733</v>
+        <v>0.01514236194345841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.971679</v>
+        <v>1.0291985</v>
       </c>
       <c r="H8">
-        <v>2.915037</v>
+        <v>2.058397</v>
       </c>
       <c r="I8">
-        <v>0.01022059415658427</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J8">
-        <v>0.01073863924961949</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>0.232029819554</v>
+        <v>1.415902683066667</v>
       </c>
       <c r="R8">
-        <v>2.088268375986</v>
+        <v>8.495416098400002</v>
       </c>
       <c r="S8">
-        <v>0.001229432461677131</v>
+        <v>0.005616608540600528</v>
       </c>
       <c r="T8">
-        <v>0.001291747963519042</v>
+        <v>0.00375978382611644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.0291985</v>
+      </c>
+      <c r="H9">
+        <v>2.058397</v>
+      </c>
+      <c r="I9">
+        <v>0.01227049194365979</v>
+      </c>
+      <c r="J9">
+        <v>0.008213924259590904</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.971679</v>
-      </c>
-      <c r="H9">
-        <v>2.915037</v>
-      </c>
-      <c r="I9">
-        <v>0.01022059415658427</v>
-      </c>
-      <c r="J9">
-        <v>0.01073863924961949</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>0.6222868757889999</v>
+        <v>1.677391489027834</v>
       </c>
       <c r="R9">
-        <v>5.600581882100999</v>
+        <v>10.064348934167</v>
       </c>
       <c r="S9">
-        <v>0.003297247254862386</v>
+        <v>0.006653883403059259</v>
       </c>
       <c r="T9">
-        <v>0.003464372838241989</v>
+        <v>0.004454140433474464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.971679</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H10">
-        <v>2.915037</v>
+        <v>4.067939</v>
       </c>
       <c r="I10">
-        <v>0.01022059415658427</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J10">
-        <v>0.01073863924961949</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>1.074607984791</v>
+        <v>1.865466426755556</v>
       </c>
       <c r="R10">
-        <v>9.671471863118999</v>
+        <v>16.7891978408</v>
       </c>
       <c r="S10">
-        <v>0.005693914440044758</v>
+        <v>0.007399939833453562</v>
       </c>
       <c r="T10">
-        <v>0.005982518447858465</v>
+        <v>0.007430331106112321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.75898</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H11">
-        <v>27.51796</v>
+        <v>4.067939</v>
       </c>
       <c r="I11">
-        <v>0.1447236696363304</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J11">
-        <v>0.101372794007575</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>3.285543524813333</v>
+        <v>2.209980632658778</v>
       </c>
       <c r="R11">
-        <v>19.71326114888</v>
+        <v>19.88982569392901</v>
       </c>
       <c r="S11">
-        <v>0.01740877043917427</v>
+        <v>0.008766560191177072</v>
       </c>
       <c r="T11">
-        <v>0.01219410552600137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>13.75898</v>
-      </c>
-      <c r="H12">
-        <v>27.51796</v>
-      </c>
-      <c r="I12">
-        <v>0.1447236696363304</v>
-      </c>
-      <c r="J12">
-        <v>0.101372794007575</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>8.811585593846667</v>
-      </c>
-      <c r="R12">
-        <v>52.86951356308</v>
-      </c>
-      <c r="S12">
-        <v>0.04668903931720916</v>
-      </c>
-      <c r="T12">
-        <v>0.03270369233317777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.75898</v>
-      </c>
-      <c r="H13">
-        <v>27.51796</v>
-      </c>
-      <c r="I13">
-        <v>0.1447236696363304</v>
-      </c>
-      <c r="J13">
-        <v>0.101372794007575</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>15.21645499242</v>
-      </c>
-      <c r="R13">
-        <v>91.29872995452001</v>
-      </c>
-      <c r="S13">
-        <v>0.08062585987994701</v>
-      </c>
-      <c r="T13">
-        <v>0.05647499614839582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.9124406666666666</v>
-      </c>
-      <c r="H14">
-        <v>2.737322</v>
-      </c>
-      <c r="I14">
-        <v>0.009597496442717393</v>
-      </c>
-      <c r="J14">
-        <v>0.0100839589576554</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>0.2178841399684444</v>
-      </c>
-      <c r="R14">
-        <v>1.960957259716</v>
-      </c>
-      <c r="S14">
-        <v>0.001154480208952054</v>
-      </c>
-      <c r="T14">
-        <v>0.001212996651156013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.9124406666666666</v>
-      </c>
-      <c r="H15">
-        <v>2.737322</v>
-      </c>
-      <c r="I15">
-        <v>0.009597496442717393</v>
-      </c>
-      <c r="J15">
-        <v>0.0100839589576554</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>0.5843492056562221</v>
-      </c>
-      <c r="R15">
-        <v>5.259142850905999</v>
-      </c>
-      <c r="S15">
-        <v>0.003096230836923996</v>
-      </c>
-      <c r="T15">
-        <v>0.003253167622339694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.9124406666666666</v>
-      </c>
-      <c r="H16">
-        <v>2.737322</v>
-      </c>
-      <c r="I16">
-        <v>0.009597496442717393</v>
-      </c>
-      <c r="J16">
-        <v>0.0100839589576554</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>1.009094594046</v>
-      </c>
-      <c r="R16">
-        <v>9.081851346414</v>
-      </c>
-      <c r="S16">
-        <v>0.005346785396841343</v>
-      </c>
-      <c r="T16">
-        <v>0.005617794684159695</v>
+        <v>0.008802564121890811</v>
       </c>
     </row>
   </sheetData>
